--- a/Node.xlsx
+++ b/Node.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Desktop\Data of water system\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xjut\Desktop\Data of water system\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20D928A2-0C56-4C0F-A856-EE26DCDEB675}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC7FE720-0008-4E37-99DD-18F5B73C497C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135" xr2:uid="{8CE620BE-6754-44A9-952A-4CE3F279804C}"/>
   </bookViews>
@@ -446,7 +446,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -456,16 +456,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="2"/>
+      <c r="B1" s="3"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
@@ -482,7 +482,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="1">
-        <v>10000</v>
+        <v>8000</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15" x14ac:dyDescent="0.2">
@@ -490,7 +490,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="1">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15" x14ac:dyDescent="0.2">
@@ -498,7 +498,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1">
-        <v>15000</v>
+        <v>8000</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15" x14ac:dyDescent="0.2">
@@ -506,7 +506,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="1">
-        <v>20000</v>
+        <v>8000</v>
       </c>
     </row>
   </sheetData>
